--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE659152-7E19-4F3B-B2D0-C2CB52E5078C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3AA05-03D2-4392-BA34-B73E6834839B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -93,131 +93,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者Ａ</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者B</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>dao</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UsersDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User関連のデータアクセス用DAO</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者C</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemsDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品関連のデータアクセス用DAO</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>model</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User1行分のデータを持つ、エンティティモデル</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品関連のデータ操作モデル</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Item.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品1行分のデータを持つ、エンティティモデル</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -244,19 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表画面jsp</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>javascript</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,19 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表画面用js</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,19 +198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表示画面用css</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MainServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,23 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UserResisterCheckServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録画面確認用</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ガメンカクニン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>履歴検索画面用</t>
     <rPh sb="0" eb="4">
       <t>リレキケンサク</t>
@@ -412,39 +236,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RecordDisplayServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>履歴表示画面用</t>
-    <rPh sb="0" eb="4">
-      <t>リレキヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UserRegisterServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ClothesRegisterServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>服登録画面</t>
-    <rPh sb="0" eb="3">
-      <t>フクトウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ClothesRegisterServlet.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -529,6 +325,1000 @@
   </si>
   <si>
     <t>CoordinateRegisterServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dailyDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategoryDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallcategoryDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genderDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weatherDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptempertureDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude and longitudeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercodeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーマスターデータアクセス用DAO</t>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デイリーデータデータアクセス用DAO</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服管理マスターデータアクセス用DAO</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大カテゴリーマスターデータアクセス用DAO</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小カテゴリーデータアクセス用DAO</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別マスターデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気マスターデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暑がり寒がりデータアクセス用DAO</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度経度データアクセス用DAO</t>
+    <rPh sb="0" eb="4">
+      <t>イドケイド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一日の天気コードデータデータアクセス用DAO</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user関連のデータ操作モデル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>daily関連のデータ操作モデル</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日分のデータを持つ、エンティティモデル</t>
+    <rPh sb="1" eb="3">
+      <t>ニチブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cloth.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes関連のデータ操作モデル</t>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服1着分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チャクブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategorys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategory.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bigcategory関連のデータを持つ操作モデル</t>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大カテゴリー1個分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallcategorys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallcategory.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smallcategory関連のデータを持つ操作モデル</t>
+    <rPh sb="13" eb="15">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小カテゴリー1個分のデータを持つ、エンティティモデル</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>genders.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender1個分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weathers.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather1個分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptempertures.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptemperture.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptempertur関連のデータを持つ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather関連のデータを持つ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender関連のデータを持つ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ptempertur1個分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitudes and longitudes.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude and longitude.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude and longitude関連のデータを持つ操作モデル</t>
+    <rPh sb="22" eb="24">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>latitude and longitude1個分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercods.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercode.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercode関連のデータを持つ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_weathercode1個分のデータを持つ、エンティティモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userregister.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面jsp</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uerresistercheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recorddisplay.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregister.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面確認jsp</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴表示画面jsp</t>
+    <rPh sb="0" eb="4">
+      <t>リレキヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録画面jsp</t>
+    <rPh sb="0" eb="3">
+      <t>フクトウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recordsearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregistercheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録確認画面jsp</t>
+    <rPh sb="0" eb="7">
+      <t>フクトウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴検索画面jsp</t>
+    <rPh sb="0" eb="4">
+      <t>リレキケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面jsp</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タグ詳細一覧jsp</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deletecheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面jsp</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdate.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdatecheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregister.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録jsp</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregistercheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録確認jsp</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profilecheck.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認jsp</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面用js</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面確認js</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴表示画面js</t>
+    <rPh sb="0" eb="4">
+      <t>リレキヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録画面js</t>
+    <rPh sb="0" eb="3">
+      <t>フクトウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面js</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴検索画面js</t>
+    <rPh sb="0" eb="4">
+      <t>リレキケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録確認画面js</t>
+    <rPh sb="0" eb="7">
+      <t>フクトウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面js</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タグ詳細一覧js</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面js</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面jsp</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面js</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認画面js</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録js</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録確認js</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認画面jsp</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userregister.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uerresistercheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recorddisplay.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregister.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recordsearch.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregistercheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deletecheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdate.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdatecheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregister.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregistercheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profilecheck.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面用css</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録画面確認css</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴表示画面css</t>
+    <rPh sb="0" eb="4">
+      <t>リレキヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録画面css</t>
+    <rPh sb="0" eb="3">
+      <t>フクトウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴検索画面css</t>
+    <rPh sb="0" eb="4">
+      <t>リレキケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録確認画面css</t>
+    <rPh sb="0" eb="7">
+      <t>フクトウロクカクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面css</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タグ詳細一覧css</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ショウサイイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面css</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集画面css</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認画面css</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシュウカクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録css</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録確認css</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィールcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール確認css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userregister.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uerresistercheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recorddisplay.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregister.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recordsearch.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesregistercheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deletecheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdate.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothesupdatecheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregister.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinateregistercheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profilecheck.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ一覧が表示される</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -567,7 +1357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -590,13 +1380,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,6 +1405,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G51"/>
+  <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -934,6 +1741,7 @@
     <col min="5" max="5" width="28.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -973,13 +1781,11 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B25" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B79" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -989,14 +1795,12 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
@@ -1009,10 +1813,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1028,10 +1832,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1046,10 +1850,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -1064,10 +1868,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1082,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1100,10 +1904,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -1118,10 +1922,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1134,17 +1938,15 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -1155,59 +1957,51 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -1218,59 +2012,51 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -1278,62 +2064,54 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -1341,20 +2119,18 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -1362,20 +2138,18 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -1383,20 +2157,18 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -1404,333 +2176,1458 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
-        <f t="shared" ref="B26" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
-        <f t="shared" ref="B28" si="2">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
-        <f t="shared" ref="B29:B51" si="3">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1">
-        <f t="shared" si="3"/>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1">
-        <f t="shared" si="3"/>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H50" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="1">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="1">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="1">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="1">
+        <f t="shared" ref="B80:B94" si="1">ROW()-2</f>
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="1">
+        <f t="shared" ref="B95:B105" si="2">ROW()-2</f>
+        <v>93</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="1">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="1">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="1">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="1">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="1">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="1">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="1">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3AA05-03D2-4392-BA34-B73E6834839B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50856B0E-E1EE-429D-823F-E280D8B63B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="203">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1318,6 +1318,20 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommend.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめの服装を判断する</t>
+    <rPh sb="5" eb="7">
+      <t>フクソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1397,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,9 +1422,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H105"/>
+  <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1785,7 +1796,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B79" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B80" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2499,16 +2510,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2524,10 +2535,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2543,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2562,48 +2573,48 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2619,10 +2630,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2638,10 +2649,10 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2657,15 +2668,12 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="3" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2679,12 +2687,15 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G51" s="1"/>
+      <c r="H51" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -2698,10 +2709,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2717,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2736,10 +2747,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2755,10 +2766,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2774,10 +2785,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2793,10 +2804,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2812,10 +2823,10 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2825,16 +2836,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -2850,10 +2861,10 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -2869,10 +2880,10 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -2888,10 +2899,10 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -2907,10 +2918,10 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -2926,10 +2937,10 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -2945,10 +2956,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -2964,10 +2975,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -2983,10 +2994,10 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -3002,10 +3013,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -3021,10 +3032,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -3040,10 +3051,10 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -3059,10 +3070,10 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -3078,10 +3089,10 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -3097,10 +3108,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -3116,10 +3127,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -3135,10 +3146,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -3154,10 +3165,10 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G76" s="1"/>
     </row>
@@ -3167,16 +3178,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -3192,10 +3203,10 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -3211,16 +3222,16 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <f t="shared" ref="B80:B94" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3230,16 +3241,16 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B81:B95" si="1">ROW()-2</f>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3249,10 +3260,10 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G81" s="1"/>
     </row>
@@ -3268,10 +3279,10 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -3287,10 +3298,10 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -3306,10 +3317,10 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -3325,10 +3336,10 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -3344,10 +3355,10 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -3363,10 +3374,10 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -3382,10 +3393,10 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -3401,10 +3412,10 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -3420,10 +3431,10 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -3439,10 +3450,10 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -3458,10 +3469,10 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -3477,10 +3488,10 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -3496,27 +3507,35 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
-        <f t="shared" ref="B95:B105" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B96:B106" si="2">ROW()-2</f>
         <v>94</v>
       </c>
       <c r="C96" s="1"/>
@@ -3623,6 +3642,17 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="1">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3632,6 +3662,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3802,22 +3847,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3834,29 +3889,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50856B0E-E1EE-429D-823F-E280D8B63B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3AA05-03D2-4392-BA34-B73E6834839B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1318,20 +1318,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recommend.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おすすめの服装を判断する</t>
-    <rPh sb="5" eb="7">
-      <t>フクソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンダン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1411,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,6 +1408,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H106"/>
+  <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1796,7 +1785,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B80" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B79" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2510,16 +2499,16 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -2535,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -2554,10 +2543,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -2573,48 +2562,48 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>113</v>
+      <c r="E46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>120</v>
+      <c r="E47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -2630,10 +2619,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -2649,10 +2638,10 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -2668,12 +2657,15 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G50" s="1"/>
+      <c r="H50" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2687,15 +2679,12 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="3" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -2709,10 +2698,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -2728,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -2747,10 +2736,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -2766,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2785,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G56" s="1"/>
     </row>
@@ -2804,10 +2793,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G57" s="1"/>
     </row>
@@ -2823,10 +2812,10 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G58" s="1"/>
     </row>
@@ -2836,16 +2825,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="G59" s="1"/>
     </row>
@@ -2861,10 +2850,10 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G60" s="1"/>
     </row>
@@ -2880,10 +2869,10 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1"/>
     </row>
@@ -2899,10 +2888,10 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G62" s="1"/>
     </row>
@@ -2918,10 +2907,10 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G63" s="1"/>
     </row>
@@ -2937,10 +2926,10 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G64" s="1"/>
     </row>
@@ -2956,10 +2945,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G65" s="1"/>
     </row>
@@ -2975,10 +2964,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -2994,10 +2983,10 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G67" s="1"/>
     </row>
@@ -3013,10 +3002,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G68" s="1"/>
     </row>
@@ -3032,10 +3021,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G69" s="1"/>
     </row>
@@ -3051,10 +3040,10 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G70" s="1"/>
     </row>
@@ -3070,10 +3059,10 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G71" s="1"/>
     </row>
@@ -3089,10 +3078,10 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -3108,10 +3097,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G73" s="1"/>
     </row>
@@ -3127,10 +3116,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G74" s="1"/>
     </row>
@@ -3146,10 +3135,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G75" s="1"/>
     </row>
@@ -3165,10 +3154,10 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G76" s="1"/>
     </row>
@@ -3178,16 +3167,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="G77" s="1"/>
     </row>
@@ -3203,10 +3192,10 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1"/>
     </row>
@@ -3222,16 +3211,16 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B80:B94" si="1">ROW()-2</f>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3241,16 +3230,16 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
-        <f t="shared" ref="B81:B95" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3260,10 +3249,10 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G81" s="1"/>
     </row>
@@ -3279,10 +3268,10 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G82" s="1"/>
     </row>
@@ -3298,10 +3287,10 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G83" s="1"/>
     </row>
@@ -3317,10 +3306,10 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G84" s="1"/>
     </row>
@@ -3336,10 +3325,10 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G85" s="1"/>
     </row>
@@ -3355,10 +3344,10 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G86" s="1"/>
     </row>
@@ -3374,10 +3363,10 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G87" s="1"/>
     </row>
@@ -3393,10 +3382,10 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G88" s="1"/>
     </row>
@@ -3412,10 +3401,10 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -3431,10 +3420,10 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G90" s="1"/>
     </row>
@@ -3450,10 +3439,10 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -3469,10 +3458,10 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -3488,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -3507,35 +3496,27 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B95:B105" si="2">ROW()-2</f>
         <v>93</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
-        <f t="shared" ref="B96:B106" si="2">ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C96" s="1"/>
@@ -3642,17 +3623,6 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="1">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3662,21 +3632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3847,32 +3802,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3889,4 +3834,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3AA05-03D2-4392-BA34-B73E6834839B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE9456-515D-4105-A6EE-1416CEC26644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1312,12 +1312,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグ一覧が表示される</t>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
+    <t>笹原</t>
+    <rPh sb="0" eb="2">
+      <t>ササハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石堂</t>
+    <rPh sb="0" eb="2">
+      <t>イシドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高井</t>
+    <rPh sb="0" eb="2">
+      <t>タカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤澤</t>
+    <rPh sb="0" eb="2">
+      <t>フジサワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松倉</t>
+    <rPh sb="0" eb="2">
+      <t>マツクラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1397,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,9 +1433,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1729,17 +1751,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.83203125" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
     <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1781,7 +1804,9 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
@@ -1800,10 +1825,13 @@
       <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1818,7 +1846,9 @@
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
@@ -1837,10 +1867,13 @@
       <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1855,10 +1888,13 @@
       <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1873,10 +1909,13 @@
       <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1891,10 +1930,13 @@
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1909,10 +1951,13 @@
       <c r="F10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1927,7 +1972,9 @@
       <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
@@ -1946,7 +1993,9 @@
       <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
@@ -1965,10 +2014,13 @@
       <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1983,10 +2035,13 @@
       <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2001,7 +2056,9 @@
       <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
@@ -2020,11 +2077,14 @@
       <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
@@ -2038,11 +2098,14 @@
       <c r="F17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -2056,7 +2119,9 @@
       <c r="F18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
@@ -2075,11 +2140,14 @@
       <c r="F19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -2093,11 +2161,14 @@
       <c r="F20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -2111,7 +2182,9 @@
       <c r="F21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
@@ -2130,7 +2203,9 @@
       <c r="F22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
@@ -2149,7 +2224,9 @@
       <c r="F23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
@@ -2168,7 +2245,9 @@
       <c r="F24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
@@ -2187,7 +2266,9 @@
       <c r="F25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
@@ -2206,7 +2287,9 @@
       <c r="F26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
@@ -2225,7 +2308,9 @@
       <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
@@ -2244,7 +2329,9 @@
       <c r="F28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -2263,7 +2350,9 @@
       <c r="F29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
@@ -2282,7 +2371,9 @@
       <c r="F30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -2301,7 +2392,9 @@
       <c r="F31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
@@ -2320,7 +2413,9 @@
       <c r="F32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
@@ -2339,7 +2434,9 @@
       <c r="F33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
@@ -2358,7 +2455,9 @@
       <c r="F34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -2377,7 +2476,9 @@
       <c r="F35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
@@ -2396,7 +2497,9 @@
       <c r="F36" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
@@ -2415,7 +2518,9 @@
       <c r="F37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -2434,7 +2539,9 @@
       <c r="F38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -2453,7 +2560,9 @@
       <c r="F39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
@@ -2472,7 +2581,9 @@
       <c r="F40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
@@ -2491,7 +2602,9 @@
       <c r="F41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
@@ -2510,7 +2623,9 @@
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
@@ -2529,7 +2644,9 @@
       <c r="F43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
@@ -2548,7 +2665,9 @@
       <c r="F44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -2567,45 +2686,51 @@
       <c r="F45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="4">
+      <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="4">
+      <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
@@ -2624,7 +2749,9 @@
       <c r="F48" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
@@ -2643,7 +2770,9 @@
       <c r="F49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
@@ -2662,10 +2791,10 @@
       <c r="F50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3" t="s">
-        <v>200</v>
-      </c>
+      <c r="G50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
@@ -2684,7 +2813,9 @@
       <c r="F51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
@@ -2703,7 +2834,9 @@
       <c r="F52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
@@ -2722,7 +2855,9 @@
       <c r="F53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
@@ -2741,7 +2876,9 @@
       <c r="F54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
@@ -2760,7 +2897,9 @@
       <c r="F55" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
@@ -2779,7 +2918,9 @@
       <c r="F56" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
@@ -2798,7 +2939,9 @@
       <c r="F57" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
@@ -2817,7 +2960,9 @@
       <c r="F58" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
@@ -2836,7 +2981,9 @@
       <c r="F59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1">
@@ -2855,7 +3002,9 @@
       <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1">
@@ -2874,7 +3023,9 @@
       <c r="F61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1">
@@ -2893,7 +3044,9 @@
       <c r="F62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1">
@@ -2912,7 +3065,9 @@
       <c r="F63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
@@ -2931,7 +3086,9 @@
       <c r="F64" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
@@ -2950,7 +3107,9 @@
       <c r="F65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
@@ -2969,7 +3128,9 @@
       <c r="F66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
@@ -2988,7 +3149,9 @@
       <c r="F67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
@@ -3007,7 +3170,9 @@
       <c r="F68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
@@ -3026,7 +3191,9 @@
       <c r="F69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
@@ -3045,7 +3212,9 @@
       <c r="F70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
@@ -3064,7 +3233,9 @@
       <c r="F71" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
@@ -3083,7 +3254,9 @@
       <c r="F72" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
@@ -3102,7 +3275,9 @@
       <c r="F73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
@@ -3121,7 +3296,9 @@
       <c r="F74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
@@ -3140,7 +3317,9 @@
       <c r="F75" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
@@ -3159,7 +3338,9 @@
       <c r="F76" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
@@ -3178,7 +3359,9 @@
       <c r="F77" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
@@ -3197,7 +3380,9 @@
       <c r="F78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
@@ -3216,7 +3401,9 @@
       <c r="F79" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
@@ -3235,7 +3422,9 @@
       <c r="F80" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
@@ -3254,7 +3443,9 @@
       <c r="F81" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
@@ -3268,12 +3459,14 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G82" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
@@ -3287,12 +3480,14 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
@@ -3306,12 +3501,14 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G84" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
@@ -3325,12 +3522,14 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
@@ -3349,7 +3548,9 @@
       <c r="F86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
@@ -3368,7 +3569,9 @@
       <c r="F87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
@@ -3387,7 +3590,9 @@
       <c r="F88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
@@ -3406,7 +3611,9 @@
       <c r="F89" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
@@ -3425,7 +3632,9 @@
       <c r="F90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
@@ -3444,7 +3653,9 @@
       <c r="F91" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
@@ -3463,7 +3674,9 @@
       <c r="F92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
@@ -3482,7 +3695,9 @@
       <c r="F93" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
@@ -3501,7 +3716,9 @@
       <c r="F94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
@@ -3632,6 +3849,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3802,22 +4034,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3834,29 +4076,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE9456-515D-4105-A6EE-1416CEC26644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA032E85-D6FD-4DB4-A096-DA09D178FE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -328,46 +328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>usersDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dailyDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bigcategoryDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smallcategoryDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>genderDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weatherDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ptempertureDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>latitude and longitudeDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>day_weathercodeDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーマスターデータアクセス用DAO</t>
     <rPh sb="15" eb="16">
       <t>ヨウ</t>
@@ -471,14 +431,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>users.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user1行分のデータを持つ、エンティティモデル</t>
     <rPh sb="5" eb="6">
       <t>ギョウ</t>
@@ -502,14 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>daily.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>day.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>daily関連のデータ操作モデル</t>
     <rPh sb="5" eb="7">
       <t>カンレン</t>
@@ -530,14 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clothes.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cloth.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>clothes関連のデータ操作モデル</t>
     <rPh sb="7" eb="9">
       <t>カンレン</t>
@@ -561,14 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bigcategorys.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bigcategory.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bigcategory関連のデータを持つ操作モデル</t>
     <rPh sb="11" eb="13">
       <t>カンレン</t>
@@ -595,14 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>smallcategorys.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>smallcategory.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>smallcategory関連のデータを持つ操作モデル</t>
     <rPh sb="13" eb="15">
       <t>カンレン</t>
@@ -629,38 +549,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>genders.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gender.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>gender1個分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weathers.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weather.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>weather1個分のデータを持つ、エンティティモデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ptempertures.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ptemperture.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ptempertur関連のデータを持つ操作モデル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,14 +570,6 @@
   </si>
   <si>
     <t>ptempertur1個分のデータを持つ、エンティティモデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>latitudes and longitudes.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>latitude and longitude.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -696,23 +584,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>day_weathercods.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>day_weathercode.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>day_weathercode関連のデータを持つ操作モデル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>day_weathercode1個分のデータを持つ、エンティティモデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>userregister.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -726,18 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>uerresistercheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recorddisplay.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregister.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>main.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -779,14 +643,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recordsearch.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregistercheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>服登録確認画面jsp</t>
     <rPh sb="0" eb="7">
       <t>フクトウロクカクニンガメン</t>
@@ -828,10 +684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>deletecheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除確認画面jsp</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -842,18 +694,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clothesupdate.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesupdatecheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coordinateregister.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート登録jsp</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -861,10 +701,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>coordinateregistercheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーディネート登録確認jsp</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -883,10 +719,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profilecheck.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール確認jsp</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -1053,63 +885,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userregister.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uerresistercheck.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recorddisplay.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregister.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>main.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recordsearch.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregistercheck.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>detail.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>deletecheck.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesupdate.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesupdatecheck.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coordinateregister.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coordinateregistercheck.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>profile.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profilecheck.js</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1252,63 +1036,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>userregister.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uerresistercheck.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>recorddisplay.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregister.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>main.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>recordsearch.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesregistercheck.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>detail.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>deletecheck.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesupdate.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clothesupdatecheck.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coordinateregister.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coordinateregistercheck.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>profile.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>profilecheck.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1344,6 +1080,266 @@
     <rPh sb="0" eb="2">
       <t>マツクラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_register_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_search.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UsersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DailyDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClothesDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BigcategoryDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SmallcategoryDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GenderDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeatherDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PtempertureDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Latitude_and_longitudeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Day_weathercodeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Users.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Daily.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Day.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clothes.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloth.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Genders.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gender.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weathers.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weather.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ptempertures.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ptemperture.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Latitudes_and_longitudes.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Day_weathercods.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Day_weathercode.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Small_categorys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big_categorys.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Big_category.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Small_category.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_display.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile_check.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_search.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_display.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile_check.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_display.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record_search.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_register_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>delete_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clothes_update_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coordinate_register_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profile_check.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1422,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,6 +1429,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,7 +1751,7 @@
   <dimension ref="B2:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1805,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1826,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1847,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1868,7 +1867,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1889,7 +1888,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1910,7 +1909,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1931,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1952,7 +1951,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1973,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1988,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2009,13 +2008,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2030,13 +2029,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2051,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2072,13 +2071,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2093,13 +2092,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2114,13 +2113,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2135,13 +2134,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2155,14 +2154,14 @@
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2177,13 +2176,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2198,13 +2197,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2219,13 +2218,13 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2240,13 +2239,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2261,13 +2260,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2282,13 +2281,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2303,13 +2302,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2324,13 +2323,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2345,13 +2344,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2366,13 +2365,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2387,13 +2386,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2408,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2429,13 +2428,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2450,13 +2449,13 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2471,13 +2470,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2492,13 +2491,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2513,13 +2512,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2533,14 +2532,14 @@
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>99</v>
+      <c r="E38" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2554,14 +2553,14 @@
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>100</v>
+      <c r="E39" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2576,13 +2575,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2597,13 +2596,13 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2624,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2639,13 +2638,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2660,13 +2659,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2681,13 +2680,13 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2702,13 +2701,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2723,13 +2722,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2744,13 +2743,13 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2765,13 +2764,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2789,10 +2788,10 @@
         <v>16</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="H50" s="3"/>
     </row>
@@ -2808,13 +2807,13 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2829,13 +2828,13 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2850,13 +2849,13 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2871,13 +2870,13 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2892,13 +2891,13 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2913,13 +2912,13 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2934,13 +2933,13 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2955,13 +2954,13 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2982,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3003,7 +3002,7 @@
         <v>22</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3018,13 +3017,13 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3039,13 +3038,13 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3060,13 +3059,13 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -3081,13 +3080,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3102,13 +3101,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3123,13 +3122,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3144,13 +3143,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3168,10 +3167,10 @@
         <v>23</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3186,13 +3185,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3207,13 +3206,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3228,13 +3227,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3249,13 +3248,13 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3270,13 +3269,13 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3291,13 +3290,13 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3312,13 +3311,13 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3333,13 +3332,13 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3360,7 +3359,7 @@
         <v>27</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3381,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3396,13 +3395,13 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3417,13 +3416,13 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3438,13 +3437,13 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3459,13 +3458,13 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3480,13 +3479,13 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3501,13 +3500,13 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3522,13 +3521,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3546,10 +3545,10 @@
         <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3564,13 +3563,13 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3585,13 +3584,13 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3606,13 +3605,13 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3627,13 +3626,13 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3648,13 +3647,13 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3669,13 +3668,13 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3690,13 +3689,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3711,13 +3710,13 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3849,21 +3848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4034,32 +4018,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4076,4 +4050,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA032E85-D6FD-4DB4-A096-DA09D178FE78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4CDD15-F7C7-4E3E-8A5E-40F52C067902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -497,19 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bigcategory関連のデータを持つ操作モデル</t>
-    <rPh sb="11" eb="13">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大カテゴリー1個分のデータを持つ、エンティティモデル</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -523,19 +510,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>smallcategory関連のデータを持つ操作モデル</t>
-    <rPh sb="13" eb="15">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小カテゴリー1個分のデータを持つ、エンティティモデル</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -557,26 +531,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ptempertur関連のデータを持つ操作モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>weather関連のデータを持つ操作モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>gender関連のデータを持つ操作モデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ptempertur1個分のデータを持つ、エンティティモデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>latitude and longitude関連のデータを持つ操作モデル</t>
-    <rPh sb="22" eb="24">
-      <t>カンレン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1175,26 +1130,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Genders.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gender.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Weathers.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weather.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ptempertures.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ptemperture.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1208,14 +1151,6 @@
   </si>
   <si>
     <t>Day_weathercode.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Small_categorys.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Big_categorys.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1418,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,9 +1364,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1748,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H105"/>
+  <dimension ref="B2:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1804,12 +1736,12 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B79" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B73" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1825,7 +1757,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1846,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1867,7 +1799,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1888,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1909,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1930,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1951,7 +1883,7 @@
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1972,7 +1904,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1987,13 +1919,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2008,13 +1940,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2029,13 +1961,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2050,13 +1982,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2071,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2092,13 +2024,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2113,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2134,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2154,14 +2086,14 @@
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>154</v>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2176,13 +2108,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2197,13 +2129,13 @@
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2218,13 +2150,13 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2239,13 +2171,13 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2260,13 +2192,13 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2281,13 +2213,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2302,13 +2234,13 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2323,13 +2255,13 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2344,13 +2276,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2365,13 +2297,13 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2386,13 +2318,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2407,16 +2339,16 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2428,16 +2360,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2449,16 +2381,16 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2470,142 +2402,142 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2617,16 +2549,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2638,16 +2570,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2659,16 +2591,17 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2680,16 +2613,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2701,16 +2634,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2722,16 +2655,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2743,16 +2676,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2764,16 +2697,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2785,17 +2718,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2807,16 +2739,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2828,142 +2760,142 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="1">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>93</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2975,16 +2907,16 @@
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2996,16 +2928,16 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3017,16 +2949,16 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3038,16 +2970,16 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3059,16 +2991,16 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3080,13 +3012,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3101,13 +3033,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3122,13 +3054,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3143,13 +3075,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3164,13 +3096,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3185,13 +3117,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3206,13 +3138,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3221,19 +3153,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3242,19 +3174,19 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3263,87 +3195,87 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B74:B88" si="1">ROW()-2</f>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -3353,18 +3285,18 @@
         <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3374,18 +3306,18 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3395,18 +3327,18 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
-        <f t="shared" ref="B80:B94" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3416,13 +3348,13 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3437,13 +3369,13 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3458,13 +3390,13 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3479,13 +3411,13 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3500,13 +3432,13 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3521,13 +3453,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3542,13 +3474,13 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3563,13 +3495,13 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3584,144 +3516,84 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B89:B99" si="2">ROW()-2</f>
         <v>87</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
-        <f t="shared" ref="B95:B105" si="2">ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C95" s="1"/>
@@ -3773,72 +3645,6 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B100" s="1">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="1">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="1">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="1">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="1">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3848,6 +3654,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4018,22 +3839,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4050,29 +3881,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4CDD15-F7C7-4E3E-8A5E-40F52C067902}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C12AE-6A33-4C7F-8090-EB593DA7E79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="195">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1275,6 +1275,17 @@
   </si>
   <si>
     <t>profile_check.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ProfileServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール画面用</t>
+    <rPh sb="6" eb="9">
+      <t>ガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1680,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H99"/>
+  <dimension ref="B2:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1741,7 +1752,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B73" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B74" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1888,7 +1899,6 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1898,10 +1908,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>128</v>
@@ -1916,13 +1926,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>128</v>
@@ -1940,10 +1950,10 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>128</v>
@@ -1961,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1982,13 +1992,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2003,13 +2013,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2024,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2045,13 +2055,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2066,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>128</v>
@@ -2087,10 +2097,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>128</v>
@@ -2108,10 +2118,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>128</v>
@@ -2126,16 +2136,16 @@
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2150,10 +2160,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>129</v>
@@ -2171,10 +2181,10 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>129</v>
@@ -2192,10 +2202,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>129</v>
@@ -2213,13 +2223,13 @@
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2234,10 +2244,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>130</v>
@@ -2255,10 +2265,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>130</v>
@@ -2276,13 +2286,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2297,10 +2307,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>131</v>
@@ -2318,13 +2328,13 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2339,10 +2349,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>132</v>
@@ -2360,13 +2370,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2381,10 +2391,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>128</v>
@@ -2402,10 +2412,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>128</v>
@@ -2417,19 +2427,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2444,13 +2454,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2465,10 +2475,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>129</v>
@@ -2486,13 +2496,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2507,13 +2517,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2528,10 +2538,10 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>131</v>
@@ -2549,13 +2559,13 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -2570,10 +2580,10 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>129</v>
@@ -2591,15 +2601,14 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
@@ -2613,14 +2622,15 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
@@ -2634,10 +2644,10 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>132</v>
@@ -2655,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>132</v>
@@ -2676,10 +2686,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>132</v>
@@ -2697,13 +2707,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2718,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>130</v>
@@ -2739,10 +2749,10 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>130</v>
@@ -2760,10 +2770,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>130</v>
@@ -2775,19 +2785,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2802,13 +2812,13 @@
         <v>18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2823,13 +2833,13 @@
         <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2844,10 +2854,10 @@
         <v>18</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>129</v>
@@ -2865,13 +2875,13 @@
         <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2886,13 +2896,13 @@
         <v>18</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2907,10 +2917,10 @@
         <v>18</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>131</v>
@@ -2928,13 +2938,13 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2949,10 +2959,10 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>129</v>
@@ -2970,13 +2980,13 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2991,10 +3001,10 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>132</v>
@@ -3012,10 +3022,10 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>132</v>
@@ -3033,10 +3043,10 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>132</v>
@@ -3054,10 +3064,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>132</v>
@@ -3075,13 +3085,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3096,10 +3106,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>130</v>
@@ -3117,10 +3127,10 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>130</v>
@@ -3138,10 +3148,10 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>130</v>
@@ -3153,19 +3163,19 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>26</v>
+        <v>182</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3180,13 +3190,13 @@
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3201,18 +3211,18 @@
         <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
-        <f t="shared" ref="B74:B88" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -3222,10 +3232,10 @@
         <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>129</v>
@@ -3233,7 +3243,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B75:B89" si="1">ROW()-2</f>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -3243,13 +3253,13 @@
         <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3264,10 +3274,10 @@
         <v>25</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>131</v>
@@ -3285,13 +3295,13 @@
         <v>25</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3306,10 +3316,10 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>129</v>
@@ -3327,13 +3337,13 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3348,10 +3358,10 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>132</v>
@@ -3369,10 +3379,10 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>132</v>
@@ -3390,10 +3400,10 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>132</v>
@@ -3411,10 +3421,10 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>132</v>
@@ -3432,10 +3442,10 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>132</v>
@@ -3453,13 +3463,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3474,10 +3484,10 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>130</v>
@@ -3495,10 +3505,10 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>130</v>
@@ -3516,10 +3526,10 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>130</v>
@@ -3527,18 +3537,28 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
-        <f t="shared" ref="B89:B99" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B90:B100" si="2">ROW()-2</f>
         <v>88</v>
       </c>
       <c r="C90" s="1"/>
@@ -3645,6 +3665,17 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3654,21 +3685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3839,32 +3855,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3881,4 +3887,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C12AE-6A33-4C7F-8090-EB593DA7E79E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5E20A-75F7-48CF-B892-102D853D2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="6450" yWindow="5595" windowWidth="19200" windowHeight="7455" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="207">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -252,25 +252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服削除・編集画面用</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>服登録画面用</t>
     <rPh sb="0" eb="3">
       <t>フクトウロク</t>
@@ -284,22 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服一覧画面用</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ProfileUpdateServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1285,6 +1250,167 @@
     <t>プロフィール画面用</t>
     <rPh sb="6" eb="9">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服の種類タグ一覧画面用</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タグ詳細一覧画面用</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履歴検索表示画面用</t>
+    <rPh sb="0" eb="2">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordSearchDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateRegisterDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録確認画面用</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClothesRegisterDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服登録確認画面用</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClothesListUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClothesListDeleteDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClothesListUpdateDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除確認画面用</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服編集画面用</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集確認画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1691,25 +1817,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H100"/>
+  <dimension ref="B2:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.375" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1747,12 +1873,12 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B74" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B80" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1768,10 +1894,10 @@
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1789,10 +1915,10 @@
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1810,10 +1936,10 @@
         <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1825,16 +1951,16 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1846,16 +1972,16 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1867,16 +1993,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1888,17 +2014,18 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1908,16 +2035,16 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1929,16 +2056,16 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1947,19 +2074,19 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1968,19 +2095,19 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1989,19 +2116,19 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2010,19 +2137,19 @@
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2031,19 +2158,19 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2052,19 +2179,19 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2076,16 +2203,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2097,16 +2224,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2118,16 +2245,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2139,16 +2266,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2157,19 +2284,19 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2178,19 +2305,19 @@
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2199,19 +2326,19 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2220,19 +2347,19 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2241,19 +2368,19 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2262,19 +2389,19 @@
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2286,16 +2413,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2307,16 +2434,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2328,16 +2455,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2349,16 +2476,16 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2370,16 +2497,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2391,16 +2518,16 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2415,13 +2542,13 @@
         <v>160</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2436,139 +2563,139 @@
         <v>161</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2580,16 +2707,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2601,16 +2728,16 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2622,17 +2749,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2644,16 +2770,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2665,16 +2791,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2686,16 +2812,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2707,16 +2833,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2728,16 +2854,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2749,16 +2875,17 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2770,16 +2897,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2791,142 +2918,142 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2938,16 +3065,16 @@
         <v>18</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2959,16 +3086,16 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2980,16 +3107,16 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3001,16 +3128,16 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3022,16 +3149,16 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3043,16 +3170,16 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3064,16 +3191,16 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3085,16 +3212,16 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3106,16 +3233,16 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3127,16 +3254,16 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3148,16 +3275,16 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3169,144 +3296,144 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="1">
-        <f t="shared" ref="B75:B89" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -3316,18 +3443,18 @@
         <v>25</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -3337,18 +3464,18 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -3358,18 +3485,18 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B81:B95" si="1">ROW()-2</f>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3379,16 +3506,16 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3400,16 +3527,16 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -3421,16 +3548,16 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -3442,16 +3569,16 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -3463,16 +3590,16 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -3484,16 +3611,16 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -3505,16 +3632,16 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3526,16 +3653,16 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3547,84 +3674,144 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" s="1">
-        <f t="shared" ref="B90:B100" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B96:B106" si="2">ROW()-2</f>
         <v>94</v>
       </c>
       <c r="C96" s="1"/>
@@ -3633,7 +3820,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -3644,7 +3831,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -3655,7 +3842,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -3666,7 +3853,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -3676,6 +3863,72 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" s="1">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B102" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" s="1">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" s="1">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" s="1">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" s="1">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3685,6 +3938,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3855,7 +4114,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3864,13 +4123,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3889,27 +4159,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5E20A-75F7-48CF-B892-102D853D2166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3BE69-D999-406C-AAB3-CC96BCD6319D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="5595" windowWidth="19200" windowHeight="7455" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="209">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1411,6 +1411,23 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegisterDisplayServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録確認画面用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1817,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H106"/>
+  <dimension ref="B2:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1878,7 +1895,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B80" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B81" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1930,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1951,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>129</v>
@@ -1972,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1993,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>127</v>
@@ -2014,13 +2031,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -2035,10 +2052,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>130</v>
@@ -2056,10 +2073,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>130</v>
@@ -2077,10 +2094,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>130</v>
@@ -2098,10 +2115,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>130</v>
@@ -2119,13 +2136,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -2140,10 +2157,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>128</v>
@@ -2161,13 +2178,13 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -2182,10 +2199,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>126</v>
@@ -2200,13 +2217,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>126</v>
@@ -2224,10 +2241,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>126</v>
@@ -2245,13 +2262,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -2266,13 +2283,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -2287,13 +2304,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -2308,13 +2325,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -2329,13 +2346,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -2350,10 +2367,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>126</v>
@@ -2371,10 +2388,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>126</v>
@@ -2392,10 +2409,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>126</v>
@@ -2410,16 +2427,16 @@
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -2434,10 +2451,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>127</v>
@@ -2455,10 +2472,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>127</v>
@@ -2476,10 +2493,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>127</v>
@@ -2497,13 +2514,13 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -2518,10 +2535,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>128</v>
@@ -2539,10 +2556,10 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>128</v>
@@ -2560,13 +2577,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2581,10 +2598,10 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>129</v>
@@ -2602,13 +2619,13 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2623,10 +2640,10 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>130</v>
@@ -2644,13 +2661,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2665,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>126</v>
@@ -2686,10 +2703,10 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>126</v>
@@ -2701,19 +2718,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2728,13 +2745,13 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2749,10 +2766,10 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>127</v>
@@ -2770,13 +2787,13 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2791,13 +2808,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2812,10 +2829,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>129</v>
@@ -2833,13 +2850,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
@@ -2854,10 +2871,10 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>127</v>
@@ -2875,15 +2892,14 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>127</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -2897,14 +2913,15 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2918,10 +2935,10 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>130</v>
@@ -2939,10 +2956,10 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>130</v>
@@ -2960,10 +2977,10 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>130</v>
@@ -2981,13 +2998,13 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
@@ -3002,10 +3019,10 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>128</v>
@@ -3023,10 +3040,10 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>128</v>
@@ -3044,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>128</v>
@@ -3059,19 +3076,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.4">
@@ -3086,13 +3103,13 @@
         <v>18</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
@@ -3107,13 +3124,13 @@
         <v>18</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
@@ -3128,10 +3145,10 @@
         <v>18</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>127</v>
@@ -3149,13 +3166,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -3170,13 +3187,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -3191,10 +3208,10 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>129</v>
@@ -3212,13 +3229,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -3233,10 +3250,10 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>127</v>
@@ -3254,13 +3271,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -3275,10 +3292,10 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>130</v>
@@ -3296,10 +3313,10 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>130</v>
@@ -3317,10 +3334,10 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>130</v>
@@ -3338,10 +3355,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>130</v>
@@ -3359,13 +3376,13 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.4">
@@ -3380,10 +3397,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>128</v>
@@ -3401,10 +3418,10 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>128</v>
@@ -3422,10 +3439,10 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>128</v>
@@ -3437,19 +3454,19 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.4">
@@ -3464,13 +3481,13 @@
         <v>25</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
@@ -3485,18 +3502,18 @@
         <v>25</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" s="1">
-        <f t="shared" ref="B81:B95" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3506,10 +3523,10 @@
         <v>25</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>127</v>
@@ -3517,7 +3534,7 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B82:B107" si="1">ROW()-2</f>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3527,13 +3544,13 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
@@ -3548,10 +3565,10 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>129</v>
@@ -3569,13 +3586,13 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
@@ -3590,10 +3607,10 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>127</v>
@@ -3611,13 +3628,13 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
@@ -3632,10 +3649,10 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>130</v>
@@ -3653,10 +3670,10 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>130</v>
@@ -3674,10 +3691,10 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>130</v>
@@ -3695,10 +3712,10 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>130</v>
@@ -3716,10 +3733,10 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>130</v>
@@ -3737,13 +3754,13 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.4">
@@ -3758,10 +3775,10 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>128</v>
@@ -3779,10 +3796,10 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>128</v>
@@ -3800,10 +3817,10 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>128</v>
@@ -3811,18 +3828,28 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" s="1">
-        <f t="shared" ref="B96:B106" si="2">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C97" s="1"/>
@@ -3833,7 +3860,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C98" s="1"/>
@@ -3844,7 +3871,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C99" s="1"/>
@@ -3855,7 +3882,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C100" s="1"/>
@@ -3866,7 +3893,7 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C101" s="1"/>
@@ -3877,7 +3904,7 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C102" s="1"/>
@@ -3888,7 +3915,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C103" s="1"/>
@@ -3899,7 +3926,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C104" s="1"/>
@@ -3910,7 +3937,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="C105" s="1"/>
@@ -3921,7 +3948,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="C106" s="1"/>
@@ -3929,6 +3956,17 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B107" s="1">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3938,12 +3976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4114,6 +4146,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4124,23 +4162,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4159,6 +4180,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3BE69-D999-406C-AAB3-CC96BCD6319D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6104AD-F4E2-4997-9FFA-1E7B66940E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="214">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1428,6 +1428,50 @@
     </rPh>
     <rPh sb="8" eb="11">
       <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login_user.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果のコメントを持つ操作モデル</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegisterCheakServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録確認画面後用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1834,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H107"/>
+  <dimension ref="B2:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1895,7 +1939,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B81" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1905,18 +1949,18 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B5:B84" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1926,13 +1970,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1947,10 +1991,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>126</v>
@@ -1968,13 +2012,13 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1989,10 +2033,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>129</v>
@@ -2010,13 +2054,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -2031,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>127</v>
@@ -2052,13 +2096,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -2073,10 +2117,10 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>130</v>
@@ -2094,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>130</v>
@@ -2115,10 +2159,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>130</v>
@@ -2136,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>130</v>
@@ -2157,13 +2201,13 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -2178,10 +2222,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>128</v>
@@ -2199,13 +2243,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -2220,10 +2264,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>126</v>
@@ -2238,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>126</v>
@@ -2262,10 +2306,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>126</v>
@@ -2283,13 +2327,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -2304,13 +2348,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -2325,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -2346,13 +2390,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -2367,13 +2411,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -2388,10 +2432,10 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>126</v>
@@ -2409,10 +2453,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>126</v>
@@ -2430,10 +2474,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>126</v>
@@ -2448,16 +2492,16 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -2472,10 +2516,10 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>127</v>
@@ -2493,10 +2537,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>127</v>
@@ -2514,14 +2558,12 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -2535,13 +2577,11 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -2556,13 +2596,13 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -2577,13 +2617,13 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -2598,13 +2638,13 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -2619,13 +2659,13 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -2640,13 +2680,13 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -2661,13 +2701,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -2682,13 +2722,13 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -2703,13 +2743,13 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -2724,13 +2764,13 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2739,19 +2779,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2760,19 +2800,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2781,19 +2821,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2808,13 +2848,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2829,13 +2869,13 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
@@ -2850,13 +2890,13 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.4">
@@ -2871,13 +2911,13 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.4">
@@ -2892,13 +2932,13 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.4">
@@ -2913,15 +2953,14 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>129</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -2935,13 +2974,13 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
@@ -2956,13 +2995,13 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
@@ -2977,14 +3016,15 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
@@ -2998,10 +3038,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>130</v>
@@ -3019,13 +3059,13 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.4">
@@ -3040,13 +3080,13 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.4">
@@ -3061,13 +3101,13 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.4">
@@ -3082,10 +3122,10 @@
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>128</v>
@@ -3097,19 +3137,19 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.4">
@@ -3118,19 +3158,19 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.4">
@@ -3139,19 +3179,19 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.4">
@@ -3166,13 +3206,13 @@
         <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
@@ -3187,13 +3227,13 @@
         <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
@@ -3208,13 +3248,13 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
@@ -3229,13 +3269,13 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
@@ -3250,13 +3290,13 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
@@ -3271,13 +3311,13 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
@@ -3292,13 +3332,13 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
@@ -3313,13 +3353,13 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.4">
@@ -3334,13 +3374,13 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.4">
@@ -3355,10 +3395,10 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>130</v>
@@ -3376,10 +3416,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>130</v>
@@ -3397,13 +3437,13 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.4">
@@ -3418,13 +3458,13 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.4">
@@ -3439,13 +3479,13 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.4">
@@ -3460,10 +3500,10 @@
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>128</v>
@@ -3475,19 +3515,19 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.4">
@@ -3496,19 +3536,19 @@
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.4">
@@ -3517,24 +3557,24 @@
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" s="1">
-        <f t="shared" ref="B82:B107" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -3544,18 +3584,18 @@
         <v>25</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -3565,10 +3605,10 @@
         <v>25</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>129</v>
@@ -3576,7 +3616,7 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -3586,18 +3626,18 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B85:B110" si="1">ROW()-2</f>
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3607,10 +3647,10 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>127</v>
@@ -3628,13 +3668,13 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.4">
@@ -3649,13 +3689,13 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
@@ -3670,13 +3710,13 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
@@ -3691,13 +3731,13 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
@@ -3712,10 +3752,10 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>130</v>
@@ -3733,10 +3773,10 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>130</v>
@@ -3754,10 +3794,10 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>130</v>
@@ -3775,13 +3815,13 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
@@ -3796,13 +3836,13 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
@@ -3817,13 +3857,13 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
@@ -3838,10 +3878,10 @@
         <v>25</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>128</v>
@@ -3852,33 +3892,63 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" s="1">
@@ -3967,6 +4037,39 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B108" s="1">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B109" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3976,6 +4079,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4146,12 +4255,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4162,6 +4265,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4180,23 +4300,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6104AD-F4E2-4997-9FFA-1E7B66940E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C40771-813C-435F-89D0-91412F9903C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="20560" yWindow="1060" windowWidth="14400" windowHeight="7270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="219">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1472,6 +1472,50 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeatherInformationGetServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気情報取得用</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>笹原</t>
+    <rPh sb="0" eb="1">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weather_information_get.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気情報取得用</t>
+    <rPh sb="0" eb="4">
+      <t>テンキジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュトクヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1878,25 +1922,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H110"/>
+  <dimension ref="B2:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E60" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
-    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.375" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
     <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1937,7 +1981,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f>ROW()-2</f>
         <v>2</v>
@@ -1958,9 +2002,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B84" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B86" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1979,7 +2023,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2000,7 +2044,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2021,7 +2065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2042,7 +2086,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2063,7 +2107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2084,7 +2128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2105,7 +2149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2126,7 +2170,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2147,7 +2191,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2168,7 +2212,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2189,7 +2233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2210,7 +2254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2231,7 +2275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2252,7 +2296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2273,7 +2317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2294,28 +2338,27 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2327,16 +2370,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2348,16 +2391,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2369,16 +2412,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2390,16 +2433,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2411,16 +2454,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2432,16 +2475,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2453,16 +2496,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2474,16 +2517,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2495,16 +2538,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2513,19 +2556,19 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2537,16 +2580,16 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2558,14 +2601,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2577,14 +2622,14 @@
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2596,16 +2641,14 @@
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2617,16 +2660,16 @@
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2638,16 +2681,16 @@
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2659,16 +2702,16 @@
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2680,16 +2723,16 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2701,16 +2744,16 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2722,16 +2765,16 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2743,16 +2786,16 @@
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2764,16 +2807,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2785,16 +2828,16 @@
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2806,16 +2849,16 @@
         <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2827,37 +2870,37 @@
         <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2869,16 +2912,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2890,16 +2933,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2911,16 +2954,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2932,16 +2975,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2953,16 +2996,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2974,16 +3017,16 @@
         <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2995,16 +3038,16 @@
         <v>13</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3016,17 +3059,16 @@
         <v>13</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3038,16 +3080,17 @@
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3059,16 +3102,16 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3080,16 +3123,16 @@
         <v>13</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3101,16 +3144,16 @@
         <v>13</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3122,16 +3165,16 @@
         <v>13</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3143,16 +3186,16 @@
         <v>13</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3164,16 +3207,16 @@
         <v>13</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3185,58 +3228,57 @@
         <v>13</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3248,16 +3290,16 @@
         <v>18</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3269,16 +3311,16 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3290,16 +3332,16 @@
         <v>18</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3311,16 +3353,16 @@
         <v>18</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3332,16 +3374,16 @@
         <v>18</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3353,16 +3395,16 @@
         <v>18</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3374,16 +3416,16 @@
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3395,16 +3437,16 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3416,16 +3458,16 @@
         <v>18</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3437,16 +3479,16 @@
         <v>18</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3458,16 +3500,16 @@
         <v>18</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -3479,16 +3521,16 @@
         <v>18</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -3500,16 +3542,16 @@
         <v>18</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -3521,16 +3563,16 @@
         <v>18</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -3542,16 +3584,16 @@
         <v>18</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -3563,58 +3605,58 @@
         <v>18</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -3626,18 +3668,18 @@
         <v>25</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
-        <f t="shared" ref="B85:B110" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3647,18 +3689,18 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -3668,18 +3710,18 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B87:B112" si="1">ROW()-2</f>
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3689,16 +3731,16 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -3710,16 +3752,16 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -3731,16 +3773,16 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -3752,16 +3794,16 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -3773,16 +3815,16 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -3794,16 +3836,16 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -3815,16 +3857,16 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -3836,16 +3878,16 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3857,16 +3899,16 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -3878,16 +3920,16 @@
         <v>25</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -3899,16 +3941,16 @@
         <v>25</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -3920,16 +3962,16 @@
         <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -3941,38 +3983,58 @@
         <v>25</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C101" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -3983,7 +4045,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -3994,7 +4056,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4005,7 +4067,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4016,7 +4078,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4027,7 +4089,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4038,7 +4100,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4049,7 +4111,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4060,7 +4122,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4070,6 +4132,28 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="1">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4079,9 +4163,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4256,27 +4343,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4301,9 +4376,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C40771-813C-435F-89D0-91412F9903C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825FCBE-F1CF-44F9-A44E-2B5B53771898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="1060" windowWidth="14400" windowHeight="7270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="20900" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1506,10 +1506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Weather_information_get.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天気情報取得用</t>
     <rPh sb="0" eb="4">
       <t>テンキジョウホウ</t>
@@ -1517,6 +1513,14 @@
     <rPh sb="4" eb="7">
       <t>シュトクヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather_information_get.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weather_information_get.js</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1922,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H112"/>
+  <dimension ref="B2:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E60" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="E81" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2004,7 +2008,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
-        <f t="shared" ref="B5:B86" si="0">ROW()-2</f>
+        <f t="shared" ref="B5:B87" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3269,10 +3273,10 @@
         <v>13</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>126</v>
@@ -3658,24 +3662,19 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
-        <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
@@ -3689,13 +3688,13 @@
         <v>25</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3710,18 +3709,18 @@
         <v>25</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
-        <f t="shared" ref="B87:B112" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -3731,10 +3730,10 @@
         <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>127</v>
@@ -3742,7 +3741,7 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B88:B113" si="1">ROW()-2</f>
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -3752,13 +3751,13 @@
         <v>25</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3773,10 +3772,10 @@
         <v>25</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>129</v>
@@ -3794,13 +3793,13 @@
         <v>25</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3815,10 +3814,10 @@
         <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>127</v>
@@ -3836,13 +3835,13 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3857,10 +3856,10 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>130</v>
@@ -3878,10 +3877,10 @@
         <v>25</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>130</v>
@@ -3899,10 +3898,10 @@
         <v>25</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>130</v>
@@ -3920,10 +3919,10 @@
         <v>25</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>130</v>
@@ -3941,10 +3940,10 @@
         <v>25</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>130</v>
@@ -3962,13 +3961,13 @@
         <v>25</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -3983,10 +3982,10 @@
         <v>25</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>128</v>
@@ -4004,10 +4003,10 @@
         <v>25</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>128</v>
@@ -4025,10 +4024,10 @@
         <v>25</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>128</v>
@@ -4039,11 +4038,21 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
@@ -4154,6 +4163,17 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4172,6 +4192,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4342,12 +4368,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -4357,6 +4377,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4373,21 +4410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_A型.xlsx
+++ b/doc/05_ファイル構成一覧表_A型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825FCBE-F1CF-44F9-A44E-2B5B53771898}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68434C78-FB8D-4FD8-BBE9-5271CABB8C52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="1400" windowWidth="14400" windowHeight="7270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="21240" yWindow="1740" windowWidth="14400" windowHeight="7270" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="221">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1521,6 +1521,19 @@
   </si>
   <si>
     <t>weather_information_get.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザーの情報を扱う操作モデル</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1928,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E81" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="E100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2631,7 +2644,9 @@
       <c r="F34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
@@ -2647,7 +2662,9 @@
       <c r="E35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>126</v>
       </c>
@@ -3674,7 +3691,9 @@
       <c r="F84" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
@@ -4183,21 +4202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4368,10 +4372,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4394,20 +4424,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>